--- a/Data shape.xlsx
+++ b/Data shape.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t>30 volunteers</t>
   </si>
@@ -1716,12 +1716,6 @@
     <t>subject_train.txt</t>
   </si>
   <si>
-    <t>Types of activity (6)</t>
-  </si>
-  <si>
-    <t>Volunteers (30)</t>
-  </si>
-  <si>
     <t>1 WALKING</t>
   </si>
   <si>
@@ -1738,6 +1732,15 @@
   </si>
   <si>
     <t>6 LAYING</t>
+  </si>
+  <si>
+    <t>Types of activity</t>
+  </si>
+  <si>
+    <t>Volunteer ID (30)</t>
+  </si>
+  <si>
+    <t>Activity ID (6)</t>
   </si>
 </sst>
 </file>
@@ -2073,7 +2076,7 @@
   <dimension ref="A1:US7354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2105,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="6" spans="1:565">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -5517,7 +5520,7 @@
     </row>
     <row r="7" spans="1:565">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -5528,7 +5531,7 @@
     </row>
     <row r="8" spans="1:565">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -5539,7 +5542,7 @@
     </row>
     <row r="9" spans="1:565">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -5550,7 +5553,7 @@
     </row>
     <row r="10" spans="1:565">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -5561,7 +5564,7 @@
     </row>
     <row r="11" spans="1:565">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -5571,6 +5574,9 @@
       </c>
     </row>
     <row r="12" spans="1:565">
+      <c r="A12" t="s">
+        <v>571</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
